--- a/03JUNE16_Sample Key_With_Demographics.xlsx
+++ b/03JUNE16_Sample Key_With_Demographics.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="21435"/>
   </bookViews>
   <sheets>
-    <sheet name="Geno" sheetId="5" r:id="rId1"/>
+    <sheet name="Patient details" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="8" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Geno!$I$1:$J$3121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Patient details'!$I$1:$J$3121</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
